--- a/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Lab/Nelson 3 (24, 30, 57, 49, 53)/Ableson 6 (33, 49, 46, 37, 41)/NCDE_32nodes_Uniform0.05Virtual_Nelson(24, 30, 57, 49, 53)_Ableson(33, 49, 46, 37, 41)_100perPatient_batchsize200_2maxITER_StandardizeAll_smoothing0_dropout0_byLab.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>5.820520258200987E-05</v>
+        <v>5.788376926308966E-05</v>
       </c>
       <c r="E2">
-        <v>5.820520258200987E-05</v>
+        <v>5.788376926308966E-05</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9687281623956395</v>
+        <v>0.9691230853224901</v>
       </c>
       <c r="E3">
-        <v>0.9687281623956395</v>
+        <v>0.9691230853224901</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>0.003994075298755064</v>
+        <v>0.003988949099698905</v>
       </c>
       <c r="E4">
-        <v>0.003994075298755064</v>
+        <v>0.003988949099698905</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.0001755137218170503</v>
+        <v>0.0001756157487735972</v>
       </c>
       <c r="E5">
-        <v>0.0001755137218170503</v>
+        <v>0.0001756157487735972</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.09925436632036867</v>
+        <v>0.09952853282508131</v>
       </c>
       <c r="E6">
-        <v>0.09925436632036867</v>
+        <v>0.09952853282508131</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9609860637825738</v>
+        <v>0.9999999863758322</v>
       </c>
       <c r="E7">
-        <v>0.03901393621742621</v>
+        <v>1.362416779393527E-08</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>0.9544057857464182</v>
+        <v>0.5643412826926471</v>
       </c>
       <c r="E8">
-        <v>0.04559421425358179</v>
+        <v>0.4356587173073529</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -551,13 +551,13 @@
         <v>13</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>0.9605779643898101</v>
+        <v>0.3270565767246524</v>
       </c>
       <c r="E9">
-        <v>0.03942203561018987</v>
+        <v>0.6729434232753475</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -565,13 +565,13 @@
         <v>14</v>
       </c>
       <c r="C10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>0.9567796823050013</v>
+        <v>0.1436111315283776</v>
       </c>
       <c r="E10">
-        <v>0.04322031769499868</v>
+        <v>0.8563888684716223</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -579,19 +579,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
-        <v>0.9588162147015689</v>
+        <v>0.005866871156122744</v>
       </c>
       <c r="E11">
-        <v>0.04118378529843114</v>
+        <v>0.9941331288438773</v>
       </c>
       <c r="F11">
-        <v>0.3786726295948029</v>
+        <v>1.23556113243103</v>
       </c>
       <c r="G11">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -605,10 +605,10 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.9958730327133511</v>
+        <v>0.9956673612355355</v>
       </c>
       <c r="E12">
-        <v>0.9958730327133511</v>
+        <v>0.9956673612355355</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -619,10 +619,10 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>0.01188100197514051</v>
+        <v>0.01129548860672427</v>
       </c>
       <c r="E13">
-        <v>0.01188100197514051</v>
+        <v>0.01129548860672427</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -633,10 +633,10 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0.0004854605098633232</v>
+        <v>0.0004879512756157871</v>
       </c>
       <c r="E14">
-        <v>0.0004854605098633232</v>
+        <v>0.0004879512756157871</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -647,10 +647,10 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>8.106879165935134E-08</v>
+        <v>8.011800586253572E-08</v>
       </c>
       <c r="E15">
-        <v>8.106879165935134E-08</v>
+        <v>8.011800586253572E-08</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -661,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="D16">
-        <v>0.02171040577632394</v>
+        <v>0.0217715204990546</v>
       </c>
       <c r="E16">
-        <v>0.02171040577632394</v>
+        <v>0.0217715204990546</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -675,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="D17">
-        <v>0.9890146157691904</v>
+        <v>0.9999999999179285</v>
       </c>
       <c r="E17">
-        <v>0.01098538423080964</v>
+        <v>8.20714607385753E-11</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -686,13 +686,13 @@
         <v>12</v>
       </c>
       <c r="C18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>0.973510958427055</v>
+        <v>0.1413514940519286</v>
       </c>
       <c r="E18">
-        <v>0.02648904157294496</v>
+        <v>0.8586485059480714</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -700,13 +700,13 @@
         <v>13</v>
       </c>
       <c r="C19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>0.9869577877722915</v>
+        <v>0.3369531335800979</v>
       </c>
       <c r="E19">
-        <v>0.01304221222770852</v>
+        <v>0.6630468664199021</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -714,13 +714,13 @@
         <v>14</v>
       </c>
       <c r="C20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>0.9787945232057924</v>
+        <v>0.02090072124396112</v>
       </c>
       <c r="E20">
-        <v>0.02120547679420759</v>
+        <v>0.9790992787560389</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -731,16 +731,16 @@
         <v>1</v>
       </c>
       <c r="D21">
-        <v>0.9822315422310537</v>
+        <v>0.9611249261613846</v>
       </c>
       <c r="E21">
-        <v>0.01776845776894631</v>
+        <v>0.03887507383861544</v>
       </c>
       <c r="F21">
-        <v>0.5614980459213257</v>
+        <v>1.242737889289856</v>
       </c>
       <c r="G21">
-        <v>0.9</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
